--- a/redundancy.xlsx
+++ b/redundancy.xlsx
@@ -8,22 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="modifiers" sheetId="4" r:id="rId2"/>
+    <sheet name="constants" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$W$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>John Smith</t>
   </si>
   <si>
     <t>Date of birth</t>
@@ -55,16 +52,10 @@
     <t>Redundancy</t>
   </si>
   <si>
-    <t>034245</t>
-  </si>
-  <si>
     <t>Years of service
 TOTAL</t>
   </si>
   <si>
-    <t>184384</t>
-  </si>
-  <si>
     <t>Sarah Johnson</t>
   </si>
   <si>
@@ -121,7 +112,19 @@
     <t>The government announces a new figure every April. Ensure it's manually kept up-to-date.</t>
   </si>
   <si>
-    <t>Ensure that these two dates are within 1 year of one another to ensure accurate calculations.</t>
+    <t>022934</t>
+  </si>
+  <si>
+    <t>Alex Brown</t>
+  </si>
+  <si>
+    <t>James Smith</t>
+  </si>
+  <si>
+    <t>045566</t>
+  </si>
+  <si>
+    <t>082003</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dddd\,\ d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +149,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,54 +259,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -332,22 +327,19 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -644,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -679,133 +671,133 @@
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="R1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="V1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>27</v>
+      <c r="W1" s="27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="14">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="E2" s="15">
-        <v>29750</v>
+        <v>22506</v>
       </c>
       <c r="F2" s="4">
-        <v>38840</v>
+        <v>29954</v>
       </c>
       <c r="G2" s="1">
         <f>DATEDIF($E2,F2,"Y")</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3">
-        <f>IF($C2="Notice",modifiers!$B$7,$I2-$Q2+1)</f>
-        <v>44147</v>
+        <f>IF($C2="Notice",constants!$B$7,$I2-$Q2+1)</f>
+        <v>44099</v>
       </c>
       <c r="I2" s="4">
-        <f>IF($C2="Redundancy",modifiers!$B$8,$H2+$Q2*7-1)</f>
-        <v>44230</v>
+        <f>IF($C2="Redundancy",constants!$B$8,$H2+$Q2*7-1)</f>
+        <v>44182</v>
       </c>
       <c r="J2" s="1">
         <f>DATEDIF($E2,I2,"Y")</f>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="K2" s="13">
         <f>IF($C2="Redundancy",DATEDIF($F2,$I2,"Y"),DATEDIF($F2,$U2,"Y"))</f>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L2" s="13">
         <f>$K2-$M2-$N2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="13">
         <f>IF($J2&lt;=22,0,IF($F2&gt;DATE(YEAR($E2)+22,MONTH($E2),DAY($E2)),IF(MONTH($F2)&gt;MONTH($I2),YEAR($I2)-YEAR($F2)-1,IF(MONTH($F2)&lt;MONTH($I2),YEAR($I2)-YEAR($F2),IF(DAY($F2)&gt;DAY($I2),YEAR($I2)-YEAR($F2)-1,YEAR($I2)-YEAR($F2)))),IF(MONTH($E2)&gt;MONTH($I2),YEAR($I2)-YEAR($E2)-23,IF(MONTH($E2)&lt;MONTH($I2),YEAR($I2)-YEAR($E2)-22,IF(DAY($E2)&gt;DAY($I2),YEAR($I2)-YEAR($E2)-23,YEAR($I2)-YEAR($E2)-22))))-$N2)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N2" s="13">
         <f>IF($J2&lt;=41,0,IF($F2&gt;DATE(YEAR($E2)+41,MONTH($E2),DAY($E2)),IF(MONTH($F2)&gt;MONTH($I2),YEAR($I2)-YEAR($F2)-1,IF(MONTH($F2)&lt;MONTH($I2),YEAR($I2)-YEAR($F2),IF(DAY($F2)&gt;DAY($I2),YEAR($I2)-YEAR($F2)-1,YEAR($I2)-YEAR($F2)))),IF(MONTH($E2)&gt;MONTH($I2),YEAR($I2)-YEAR($E2)-42,IF(MONTH($E2)&lt;MONTH($I2),YEAR($I2)-YEAR($E2)-41,IF(DAY($E2)&gt;DAY($I2),YEAR($I2)-YEAR($E2)-42,YEAR($I2)-YEAR($E2)-41)))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5">
         <f xml:space="preserve"> IF($K2&lt;2,0,IF($N2&gt;=20,20*1.5,IF(SUM($M2:$N2)&gt;=20,$N2*1.5+(20-$N2),IF(SUM($L2:$N2)&gt;=20,$N2*1.5+$M2+(20-$N2-$M2)*0.5,$N2*1.5+$M2+$L2*0.5))))</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2">
-        <f>MIN(modifiers!$B$3,$D2)*$O2</f>
-        <v>7000</v>
+        <f>MIN(constants!$B$3,$D2)*$O2</f>
+        <v>15602</v>
       </c>
       <c r="Q2" s="5">
         <f>IF($K2&gt;12,12,MAX(4,$K2))</f>
@@ -813,19 +805,19 @@
       </c>
       <c r="R2" s="2">
         <f>$D2*$Q2</f>
-        <v>6000</v>
+        <v>8160</v>
       </c>
       <c r="S2" s="23">
         <f>$P2+$R2</f>
-        <v>13000</v>
+        <v>23762</v>
       </c>
       <c r="U2" s="4">
         <f>IF($C2="Redundancy","",$H2+$W2*7-1)</f>
-        <v>44230</v>
+        <v>44182</v>
       </c>
       <c r="V2" s="5">
-        <f>IF($C2="Redundancy","",DATEDIF($F2,modifiers!$B$8,"Y"))</f>
-        <v>14</v>
+        <f>IF($C2="Redundancy","",DATEDIF($F2,$H2+28,"Y"))</f>
+        <v>38</v>
       </c>
       <c r="W2" s="5">
         <f>IF($C2="Redundancy","",IF($V2&gt;12,12,MAX(4,$V2)))</f>
@@ -834,38 +826,38 @@
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="14">
         <v>800</v>
       </c>
       <c r="E3" s="15">
-        <v>27386</v>
+        <v>31009</v>
       </c>
       <c r="F3" s="4">
         <v>37983</v>
       </c>
       <c r="G3" s="1">
         <f>DATEDIF($E3,F3,"Y")</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3">
-        <f>IF($C3="Notice",modifiers!$B$7,$I3-$Q3+1)</f>
-        <v>44085</v>
+        <f>IF($C3="Notice",constants!$B$7,$I3-$Q3+1)</f>
+        <v>44137</v>
       </c>
       <c r="I3" s="4">
-        <f>IF($C3="Redundancy",modifiers!$B$8,$H3+$Q3*7-1)</f>
-        <v>44096</v>
+        <f>IF($C3="Redundancy",constants!$B$8,$H3+$Q3*7-1)</f>
+        <v>44148</v>
       </c>
       <c r="J3" s="1">
         <f>DATEDIF($E3,I3,"Y")</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K3" s="13">
         <f>IF($C3="Redundancy",DATEDIF($F3,$I3,"Y"),DATEDIF($F3,$U3,"Y"))</f>
@@ -873,23 +865,23 @@
       </c>
       <c r="L3" s="13">
         <f>$K3-$M3-$N3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="13">
         <f>IF($J3&lt;=22,0,IF($F3&gt;DATE(YEAR($E3)+22,MONTH($E3),DAY($E3)),IF(MONTH($F3)&gt;MONTH($I3),YEAR($I3)-YEAR($F3)-1,IF(MONTH($F3)&lt;MONTH($I3),YEAR($I3)-YEAR($F3),IF(DAY($F3)&gt;DAY($I3),YEAR($I3)-YEAR($F3)-1,YEAR($I3)-YEAR($F3)))),IF(MONTH($E3)&gt;MONTH($I3),YEAR($I3)-YEAR($E3)-23,IF(MONTH($E3)&lt;MONTH($I3),YEAR($I3)-YEAR($E3)-22,IF(DAY($E3)&gt;DAY($I3),YEAR($I3)-YEAR($E3)-23,YEAR($I3)-YEAR($E3)-22))))-$N3)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N3" s="13">
         <f>IF($J3&lt;=41,0,IF($F3&gt;DATE(YEAR($E3)+41,MONTH($E3),DAY($E3)),IF(MONTH($F3)&gt;MONTH($I3),YEAR($I3)-YEAR($F3)-1,IF(MONTH($F3)&lt;MONTH($I3),YEAR($I3)-YEAR($F3),IF(DAY($F3)&gt;DAY($I3),YEAR($I3)-YEAR($F3)-1,YEAR($I3)-YEAR($F3)))),IF(MONTH($E3)&gt;MONTH($I3),YEAR($I3)-YEAR($E3)-42,IF(MONTH($E3)&lt;MONTH($I3),YEAR($I3)-YEAR($E3)-41,IF(DAY($E3)&gt;DAY($I3),YEAR($I3)-YEAR($E3)-42,YEAR($I3)-YEAR($E3)-41)))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5">
         <f xml:space="preserve"> IF($K3&lt;2,0,IF($N3&gt;=20,20*1.5,IF(SUM($M3:$N3)&gt;=20,$N3*1.5+(20-$N3),IF(SUM($L3:$N3)&gt;=20,$N3*1.5+$M3+(20-$N3-$M3)*0.5,$N3*1.5+$M3+$L3*0.5))))</f>
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="P3" s="2">
-        <f>MIN(modifiers!$B$3,$D3)*$O3</f>
-        <v>9684</v>
+        <f>MIN(constants!$B$3,$D3)*$O3</f>
+        <v>7801</v>
       </c>
       <c r="Q3" s="5">
         <f>IF($K3&gt;12,12,MAX(4,$K3))</f>
@@ -901,14 +893,14 @@
       </c>
       <c r="S3" s="23">
         <f>$P3+$R3</f>
-        <v>19284</v>
+        <v>17401</v>
       </c>
       <c r="U3" s="4" t="str">
         <f>IF($C3="Redundancy","",$H3+$W3*7-1)</f>
         <v/>
       </c>
       <c r="V3" s="5" t="str">
-        <f>IF($C3="Redundancy","",DATEDIF($F3,modifiers!$B$8,"Y"))</f>
+        <f>IF($C3="Redundancy","",DATEDIF($F3,$H3+28,"Y"))</f>
         <v/>
       </c>
       <c r="W3" s="5" t="str">
@@ -916,10 +908,94 @@
         <v/>
       </c>
     </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
+        <v>500</v>
+      </c>
+      <c r="E4" s="15">
+        <v>29750</v>
+      </c>
+      <c r="F4" s="4">
+        <v>40502</v>
+      </c>
+      <c r="G4" s="1">
+        <f>DATEDIF($E4,F4,"Y")</f>
+        <v>29</v>
+      </c>
+      <c r="H4" s="3">
+        <f>IF($C4="Notice",constants!$B$7,$I4-$Q4+1)</f>
+        <v>44099</v>
+      </c>
+      <c r="I4" s="4">
+        <f>IF($C4="Redundancy",constants!$B$8,$H4+$Q4*7-1)</f>
+        <v>44168</v>
+      </c>
+      <c r="J4" s="1">
+        <f>DATEDIF($E4,I4,"Y")</f>
+        <v>39</v>
+      </c>
+      <c r="K4" s="13">
+        <f>IF($C4="Redundancy",DATEDIF($F4,$I4,"Y"),DATEDIF($F4,$U4,"Y"))</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="13">
+        <f>$K4-$M4-$N4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f>IF($J4&lt;=22,0,IF($F4&gt;DATE(YEAR($E4)+22,MONTH($E4),DAY($E4)),IF(MONTH($F4)&gt;MONTH($I4),YEAR($I4)-YEAR($F4)-1,IF(MONTH($F4)&lt;MONTH($I4),YEAR($I4)-YEAR($F4),IF(DAY($F4)&gt;DAY($I4),YEAR($I4)-YEAR($F4)-1,YEAR($I4)-YEAR($F4)))),IF(MONTH($E4)&gt;MONTH($I4),YEAR($I4)-YEAR($E4)-23,IF(MONTH($E4)&lt;MONTH($I4),YEAR($I4)-YEAR($E4)-22,IF(DAY($E4)&gt;DAY($I4),YEAR($I4)-YEAR($E4)-23,YEAR($I4)-YEAR($E4)-22))))-$N4)</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="13">
+        <f>IF($J4&lt;=41,0,IF($F4&gt;DATE(YEAR($E4)+41,MONTH($E4),DAY($E4)),IF(MONTH($F4)&gt;MONTH($I4),YEAR($I4)-YEAR($F4)-1,IF(MONTH($F4)&lt;MONTH($I4),YEAR($I4)-YEAR($F4),IF(DAY($F4)&gt;DAY($I4),YEAR($I4)-YEAR($F4)-1,YEAR($I4)-YEAR($F4)))),IF(MONTH($E4)&gt;MONTH($I4),YEAR($I4)-YEAR($E4)-42,IF(MONTH($E4)&lt;MONTH($I4),YEAR($I4)-YEAR($E4)-41,IF(DAY($E4)&gt;DAY($I4),YEAR($I4)-YEAR($E4)-42,YEAR($I4)-YEAR($E4)-41)))))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <f xml:space="preserve"> IF($K4&lt;2,0,IF($N4&gt;=20,20*1.5,IF(SUM($M4:$N4)&gt;=20,$N4*1.5+(20-$N4),IF(SUM($L4:$N4)&gt;=20,$N4*1.5+$M4+(20-$N4-$M4)*0.5,$N4*1.5+$M4+$L4*0.5))))</f>
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <f>MIN(constants!$B$3,$D4)*$O4</f>
+        <v>5000</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>IF($K4&gt;12,12,MAX(4,$K4))</f>
+        <v>10</v>
+      </c>
+      <c r="R4" s="2">
+        <f>$D4*$Q4</f>
+        <v>5000</v>
+      </c>
+      <c r="S4" s="23">
+        <f>$P4+$R4</f>
+        <v>10000</v>
+      </c>
+      <c r="U4" s="4">
+        <f>IF($C4="Redundancy","",$H4+$W4*7-1)</f>
+        <v>44161</v>
+      </c>
+      <c r="V4" s="5">
+        <f>IF($C4="Redundancy","",DATEDIF($F4,$H4+28,"Y"))</f>
+        <v>9</v>
+      </c>
+      <c r="W4" s="5">
+        <f>IF($C4="Redundancy","",IF($V4&gt;12,12,MAX(4,$V4)))</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W3"/>
+  <autoFilter ref="A1:W4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
       <formula1>"Notice,Redundancy"</formula1>
     </dataValidation>
   </dataValidations>
@@ -943,39 +1019,32 @@
   <sheetData>
     <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="21">
         <v>538</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>30</v>
+      <c r="C3" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="22">
-        <v>44147</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>31</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="22">
-        <v>44096</v>
-      </c>
-      <c r="C8" s="24"/>
+        <v>44148</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C7:C8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/redundancy.xlsx
+++ b/redundancy.xlsx
@@ -776,7 +776,7 @@
         <v>59</v>
       </c>
       <c r="K2" s="13">
-        <f>IF($C2="Redundancy",DATEDIF($F2,$I2,"Y"),DATEDIF($F2,$U2,"Y"))</f>
+        <f>IF($C2="Redundancy",DATEDIF($F2,$I2,"Y"),DATEDIF($F2,$U2+1,"Y"))</f>
         <v>38</v>
       </c>
       <c r="L2" s="13">
@@ -860,7 +860,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="13">
-        <f>IF($C3="Redundancy",DATEDIF($F3,$I3,"Y"),DATEDIF($F3,$U3,"Y"))</f>
+        <f t="shared" ref="K3:K4" si="0">IF($C3="Redundancy",DATEDIF($F3,$I3,"Y"),DATEDIF($F3,$U3+1,"Y"))</f>
         <v>16</v>
       </c>
       <c r="L3" s="13">
@@ -944,7 +944,7 @@
         <v>39</v>
       </c>
       <c r="K4" s="13">
-        <f>IF($C4="Redundancy",DATEDIF($F4,$I4,"Y"),DATEDIF($F4,$U4,"Y"))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L4" s="13">

--- a/redundancy.xlsx
+++ b/redundancy.xlsx
@@ -995,7 +995,7 @@
   </sheetData>
   <autoFilter ref="A1:W4"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"Notice,Redundancy"</formula1>
     </dataValidation>
   </dataValidations>
